--- a/99_pjt/기능 리스트.xlsx
+++ b/99_pjt/기능 리스트.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yry32\OneDrive\바탕 화면\TIL\99_pjt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Desktop\TIL\99_pjt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA947EAD-8601-447A-ADBC-BC13D53A5AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{56E894B8-9205-4B61-8951-5375CFFD74B0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="page" sheetId="1" r:id="rId1"/>
@@ -383,7 +382,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
@@ -600,36 +599,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -642,51 +626,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -702,34 +650,13 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -748,6 +675,78 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1070,11 +1069,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{773B3B60-5110-424A-A388-8B01B192F932}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1086,282 +1085,282 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="G2" s="33" t="s">
+      <c r="E2" s="36"/>
+      <c r="G2" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="8" t="s">
+      <c r="A3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="G3" s="34" t="s">
+      <c r="E3" s="37"/>
+      <c r="G3" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="6" t="s">
+      <c r="A4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="G4" s="35" t="s">
+      <c r="E4" s="37"/>
+      <c r="G4" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="6" t="s">
+      <c r="A5" s="42"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="29"/>
-      <c r="G5" s="36" t="s">
+      <c r="D5" s="15"/>
+      <c r="E5" s="38"/>
+      <c r="G5" s="19" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="42"/>
+      <c r="B6" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="7" t="s">
+      <c r="A7" s="42"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="7" t="s">
+      <c r="A8" s="42"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="4" t="s">
+      <c r="A9" s="42"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="7" t="s">
+      <c r="A10" s="42"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="7" t="s">
+      <c r="A11" s="42"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="7" t="s">
+      <c r="A12" s="42"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="27"/>
+      <c r="E12" s="36"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="28"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="37"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="23" t="s">
+      <c r="A14" s="42"/>
+      <c r="B14" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="7" t="s">
+      <c r="A15" s="42"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
     </row>
     <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="7" t="s">
+      <c r="A16" s="42"/>
+      <c r="B16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
     </row>
     <row r="17" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="8" t="s">
+      <c r="A17" s="42"/>
+      <c r="B17" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
     </row>
     <row r="18" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="42"/>
+      <c r="B18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="16" t="s">
+      <c r="A20" s="42"/>
+      <c r="B20" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="16" t="s">
+      <c r="A21" s="42"/>
+      <c r="B21" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="15" t="s">
+      <c r="A22" s="42"/>
+      <c r="B22" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="17" t="s">
+      <c r="A23" s="42"/>
+      <c r="B23" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="9" t="s">
+      <c r="A25" s="33"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -1389,10 +1388,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9FB50E-C3EF-4353-BDF8-A404567CD725}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -1407,241 +1406,241 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="41" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="22"/>
+      <c r="E2" s="5" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="39"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="41" t="s">
+      <c r="A3" s="47"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="41" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="22"/>
+      <c r="E4" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="41" t="s">
+      <c r="B5" s="25"/>
+      <c r="C5" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="7" t="s">
+      <c r="D5" s="22"/>
+      <c r="E5" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="52" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="53" t="s">
+      <c r="D6" s="28"/>
+      <c r="E6" s="29" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="38"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="6" t="s">
+      <c r="A8" s="48"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="38"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="12" t="s">
+      <c r="A9" s="48"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="38"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="6" t="s">
+      <c r="A10" s="48"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="38"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="6" t="s">
+      <c r="A11" s="48"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="7" t="s">
+      <c r="D11" s="4"/>
+      <c r="E11" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="38"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="6" t="s">
+      <c r="A12" s="48"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="38"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="6" t="s">
+      <c r="A13" s="48"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="7" t="s">
+      <c r="D13" s="4"/>
+      <c r="E13" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="38"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="6" t="s">
+      <c r="A14" s="48"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7" t="s">
+      <c r="D14" s="4"/>
+      <c r="E14" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="38"/>
-      <c r="B15" s="7" t="s">
+      <c r="A15" s="48"/>
+      <c r="B15" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="7" t="s">
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="7" t="s">
+      <c r="B16" s="51"/>
+      <c r="C16" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7" t="s">
+      <c r="D16" s="5"/>
+      <c r="E16" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="7" t="s">
+      <c r="B17" s="52"/>
+      <c r="C17" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7" t="s">
+      <c r="D17" s="5"/>
+      <c r="E17" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="7" t="s">
+      <c r="B18" s="52"/>
+      <c r="C18" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7" t="s">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="47"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="7" t="s">
+      <c r="A19" s="50"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
+      <c r="D19" s="5"/>
+      <c r="E19" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="14"/>
+      <c r="D20" s="9"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E23" s="3" t="s">
